--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value627.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value627.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.227364549540713</v>
+        <v>1.23005485534668</v>
       </c>
       <c r="B1">
-        <v>2.34587901489654</v>
+        <v>2.532801389694214</v>
       </c>
       <c r="C1">
-        <v>3.919973845631999</v>
+        <v>4.949195861816406</v>
       </c>
       <c r="D1">
-        <v>2.980271702386511</v>
+        <v>2.261281490325928</v>
       </c>
       <c r="E1">
-        <v>1.089759807422927</v>
+        <v>1.062237024307251</v>
       </c>
     </row>
   </sheetData>
